--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,106 +58,115 @@
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +538,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -590,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,16 +670,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5588235294117647</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,16 +770,16 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4232804232804233</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,16 +870,16 @@
         <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3352713178294573</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>343</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3220338983050847</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>0.8207547169811321</v>
@@ -990,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2666666666666667</v>
+        <v>0.28</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7878787878787878</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,16 +1070,16 @@
         <v>119</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,21 +1091,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>231</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,47 +1141,71 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.006119162640901771</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3086</v>
+      </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.765625</v>
+      </c>
+      <c r="L14">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>98</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>30</v>
-      </c>
-      <c r="K14">
-        <v>0.7682926829268293</v>
-      </c>
-      <c r="L14">
-        <v>63</v>
-      </c>
-      <c r="M14">
-        <v>63</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7625</v>
+        <v>0.75625</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1160,12 +1217,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.75</v>
@@ -1191,16 +1248,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7253521126760564</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1212,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1238,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1264,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1295,16 +1352,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6033898305084746</v>
+        <v>0.64</v>
       </c>
       <c r="L24">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5815899581589958</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L25">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="M25">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1446,47 +1503,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5230769230769231</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5168539325842697</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,12 +1581,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>0.5142857142857142</v>
@@ -1555,16 +1612,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.475</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1576,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.2692307692307692</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1602,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.2602739726027397</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1628,7 +1685,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
